--- a/Data/Output_Data.xlsx
+++ b/Data/Output_Data.xlsx
@@ -7,13 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Output_Data" r:id="rId3" sheetId="1"/>
-    <sheet name="Model_Summaries" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="157">
   <si>
     <t>Study_ID</t>
   </si>
@@ -63,58 +62,28 @@
     <t>A09</t>
   </si>
   <si>
-    <t>Sens_mean</t>
-  </si>
-  <si>
-    <t>Sens_lower</t>
-  </si>
-  <si>
-    <t>Sens_higher</t>
-  </si>
-  <si>
-    <t>Spec_mean</t>
-  </si>
-  <si>
-    <t>Spec_lower</t>
-  </si>
-  <si>
-    <t>Spec_higher</t>
-  </si>
-  <si>
-    <t>FPR_mean</t>
-  </si>
-  <si>
-    <t>FPR_lower</t>
-  </si>
-  <si>
-    <t>FPR_higher</t>
-  </si>
-  <si>
-    <t>posLR_mean</t>
-  </si>
-  <si>
-    <t>posLR_lower</t>
-  </si>
-  <si>
-    <t>posLR_higher</t>
-  </si>
-  <si>
-    <t>negLR_mean</t>
-  </si>
-  <si>
-    <t>negLR_lower</t>
-  </si>
-  <si>
-    <t>negLR_higher</t>
-  </si>
-  <si>
-    <t>DOR_mean</t>
-  </si>
-  <si>
-    <t>DOR_lower</t>
-  </si>
-  <si>
-    <t>DOR_higher</t>
+    <t>uncor.Sens</t>
+  </si>
+  <si>
+    <t>uncor.Spec</t>
+  </si>
+  <si>
+    <t>uncor.PPV</t>
+  </si>
+  <si>
+    <t>uncor.NPV</t>
+  </si>
+  <si>
+    <t>cor.Sens</t>
+  </si>
+  <si>
+    <t>cor.Spec</t>
+  </si>
+  <si>
+    <t>cor.PPV</t>
+  </si>
+  <si>
+    <t>cor.NPV</t>
   </si>
   <si>
     <t>1</t>
@@ -514,30 +483,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kato-Katz </t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>X_Squared_Sensitivity</t>
-  </si>
-  <si>
-    <t>I_Squared_Sensitivity</t>
-  </si>
-  <si>
-    <t>p_value_Sensitivity</t>
-  </si>
-  <si>
-    <t>X_Squared_Specificity</t>
-  </si>
-  <si>
-    <t>I_Squared_Specificity</t>
-  </si>
-  <si>
-    <t>p_value_Specificity</t>
-  </si>
-  <si>
-    <t>AUC</t>
   </si>
 </sst>
 </file>
@@ -662,49 +607,19 @@
       <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E2" t="n">
         <v>230.0</v>
@@ -746,72 +661,42 @@
         <v>0.0</v>
       </c>
       <c r="R2" t="n">
+        <v>0.8582089552238806</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.8556701030927835</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.8455882352941176</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.867595818815331</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.8568773234200744</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.8099966082828343</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.8937087627039795</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>0.8544520547945206</v>
       </c>
-      <c r="V2" t="n">
-        <v>0.8094016980448152</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.8902973935739161</v>
-      </c>
       <c r="X2" t="n">
-        <v>0.14554794520547945</v>
+        <v>0.8443223443223443</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.10970260642608387</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.1905983019551848</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>5.887251257380276</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.4398680487275755</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.806476901370704</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.16750229082700713</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.12456031228566869</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.2252484512719336</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>35.14728800611155</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21.936173053544486</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>56.31482990078554</v>
+        <v>0.8663194444444444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E3" t="n">
         <v>27.0</v>
@@ -853,72 +738,42 @@
         <v>0.0</v>
       </c>
       <c r="R3" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.8141592920353983</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.5612244897959183</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.42290141789171</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.6906457879180251</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>0.9343434343434344</v>
       </c>
-      <c r="V3" t="n">
-        <v>0.8675754288498054</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.9686631950104656</v>
-      </c>
       <c r="X3" t="n">
-        <v>0.06565656565656566</v>
+        <v>0.8088235294117647</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03133680498953433</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.13242457115019446</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>8.547880690737832</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3.905678831460129</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>18.70769908537846</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.4696083838940982</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.34068550868641584</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.6473185051924693</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18.20214669051878</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.864795723563488</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>48.26336536219287</v>
+        <v>0.8114035087719298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E4" t="n">
         <v>48.0</v>
@@ -960,72 +815,42 @@
         <v>0.0</v>
       </c>
       <c r="R4" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9180327868852459</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9056603773584906</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.6928571428571428</v>
       </c>
-      <c r="S4" t="n">
-        <v>0.5771288652067961</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.7885193821492438</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>0.9112903225806451</v>
       </c>
-      <c r="V4" t="n">
-        <v>0.8145452556189595</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.960042685071847</v>
-      </c>
       <c r="X4" t="n">
-        <v>0.08870967741935484</v>
+        <v>0.8981481481481481</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.039957314928153034</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.18545474438104043</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>7.81038961038961</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.4644341682521995</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17.608123838836704</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.33704171934260435</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.2350722858030638</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.48324335720539596</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>23.173361522198725</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.422601675677903</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>63.757578111433006</v>
+        <v>0.7243589743589743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E5" t="n">
         <v>138.0</v>
@@ -1067,72 +892,42 @@
         <v>0.0</v>
       </c>
       <c r="R5" t="n">
+        <v>0.8961038961038961</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9857142857142858</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.8935483870967742</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.8351330512441152</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.9329283913148952</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>0.8214285714285714</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.5615065718384327</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.9429364835445158</v>
-      </c>
       <c r="X5" t="n">
-        <v>0.17857142857142858</v>
+        <v>0.9822695035460993</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05706351645548419</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.4384934281615674</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>5.0038709677419355</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.624864843400723</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15.409727623502764</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.12959326788218795</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.07724798559948882</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.21740910070405328</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>38.61212121212121</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.96843964823833</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>166.23804842042918</v>
+        <v>0.4107142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E6" t="n">
         <v>32.0</v>
@@ -1174,72 +969,42 @@
         <v>0.0</v>
       </c>
       <c r="R6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8247422680412371</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.6632653061224489</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.5234215596314228</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.7793709891945378</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>0.8214285714285714</v>
       </c>
-      <c r="V6" t="n">
-        <v>0.7339391448149917</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.884669432963928</v>
-      </c>
       <c r="X6" t="n">
-        <v>0.17857142857142858</v>
+        <v>0.65</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.11533056703607208</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.26606085518500827</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>3.714285714285714</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2.3233782111404824</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>5.937870253407817</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.4099378881987578</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.2737861680265833</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.6137967940167837</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.060606060606059</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>4.127407930431228</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19.89010622870855</v>
+        <v>0.8298969072164949</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E7" t="n">
         <v>51.0</v>
@@ -1281,72 +1046,42 @@
         <v>0.0</v>
       </c>
       <c r="R7" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.7686567164179104</v>
       </c>
-      <c r="S7" t="n">
-        <v>0.6548165574130215</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.8533604423170252</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>0.8362068965517241</v>
       </c>
-      <c r="V7" t="n">
-        <v>0.7207490469171923</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.9098958431569301</v>
-      </c>
       <c r="X7" t="n">
-        <v>0.16379310344827586</v>
+        <v>0.8442622950819673</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.09010415684307001</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.2792509530828078</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>4.692851531814611</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>2.5854405014971893</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.518028354124429</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.27665794737651944</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.17621429206942935</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.43435534625325395</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>16.96264855687606</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6.911871751914827</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>41.62858577119548</v>
+        <v>0.7578125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E8" t="n">
         <v>138.0</v>
@@ -1388,72 +1123,42 @@
         <v>0.0</v>
       </c>
       <c r="R8" t="n">
+        <v>0.9139072847682119</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.9787234042553191</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.9111842105263158</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.8552492924313003</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.9468479219166527</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>0.75</v>
       </c>
-      <c r="V8" t="n">
-        <v>0.48816221092015527</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.9041823877110269</v>
-      </c>
       <c r="X8" t="n">
-        <v>0.25</v>
+        <v>0.9753521126760564</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09581761228897312</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.5118377890798448</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>3.6447368421052633</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.4690862152839341</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.042428218300309</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.11842105263157891</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.06549742798774415</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.21410834191833095</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>30.77777777777779</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8.119255045982094</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>116.66976829444967</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E9" t="n">
         <v>37.0</v>
@@ -1495,72 +1200,42 @@
         <v>0.0</v>
       </c>
       <c r="R9" t="n">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.6993609728071961</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.9148712947042119</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>0.6081081081081081</v>
       </c>
-      <c r="V9" t="n">
-        <v>0.4478778234730628</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.7480015655351097</v>
-      </c>
       <c r="X9" t="n">
-        <v>0.3918918918918919</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.25199843446489034</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.5521221765269372</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2.1264367816091956</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.3942214911109807</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>3.243195873115788</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.274074074074074</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.1357390323017289</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.5533898157796449</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>7.758620689655174</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>2.784216438216563</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21.620515625036738</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E10" t="n">
         <v>231.0</v>
@@ -1602,72 +1277,42 @@
         <v>0.0</v>
       </c>
       <c r="R10" t="n">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.7480719794344473</v>
+      </c>
+      <c r="V10" t="n">
         <v>0.7015151515151515</v>
       </c>
-      <c r="S10" t="n">
-        <v>0.6500556122402195</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.748337087305927</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>0.9982876712328768</v>
       </c>
-      <c r="V10" t="n">
-        <v>0.9838137484294988</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.9998212064548048</v>
-      </c>
       <c r="X10" t="n">
-        <v>0.0017123287671232876</v>
+        <v>0.9978448275862069</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.787935451952466E-4</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.01618625157050124</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>409.68484848484854</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>25.66326553593861</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6540.1526880127285</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.29899682935703514</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.25339760589947025</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.352801691429662</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1370.1979695431476</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>84.64998654071749</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>22178.88687834694</v>
+        <v>0.7474358974358974</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E11" t="n">
         <v>267.0</v>
@@ -1709,72 +1354,42 @@
         <v>0.0</v>
       </c>
       <c r="R11" t="n">
+        <v>0.8115501519756839</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8243626062322946</v>
+      </c>
+      <c r="V11" t="n">
         <v>0.8106060606060606</v>
       </c>
-      <c r="S11" t="n">
-        <v>0.764849647358054</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.8492142880326227</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>0.9982876712328768</v>
       </c>
-      <c r="V11" t="n">
-        <v>0.9838137484294988</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.9998212064548048</v>
-      </c>
       <c r="X11" t="n">
-        <v>0.0017123287671232876</v>
+        <v>0.9981343283582089</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.787935451952466E-4</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.01618625157050124</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>473.3939393939394</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29.666052794451733</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7554.150308018909</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.18971880035344876</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.1517573351168648</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.237176167991051</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2495.2399999999993</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>153.59570805836648</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>40536.43644283359</v>
+        <v>0.8234463276836158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E12" t="n">
         <v>306.0</v>
@@ -1816,72 +1431,42 @@
         <v>0.0</v>
       </c>
       <c r="R12" t="n">
+        <v>0.9300911854103343</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.6460481099656358</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.7481662591687042</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.8909952606635071</v>
+      </c>
+      <c r="V12" t="n">
         <v>0.9287878787878788</v>
       </c>
-      <c r="S12" t="n">
-        <v>0.8958285882371346</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.9518791859851168</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>0.6455479452054794</v>
       </c>
-      <c r="V12" t="n">
-        <v>0.5891171055243773</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.6981989465895944</v>
-      </c>
       <c r="X12" t="n">
-        <v>0.3544520547945205</v>
+        <v>0.7475609756097561</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.30180105341040553</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.41088289447562265</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2.62034841165276</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>2.238175204031674</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>3.0677785126396087</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.11031267582991713</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.0740328870093671</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.16437136170600372</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>23.753828759379196</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>14.651332302826015</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>38.51147247688022</v>
+        <v>0.8891509433962265</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E13" t="n">
         <v>313.0</v>
@@ -1923,72 +1508,42 @@
         <v>0.0</v>
       </c>
       <c r="R13" t="n">
+        <v>0.9513677811550152</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5670103092783505</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.7129840546697038</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.9116022099447514</v>
+      </c>
+      <c r="V13" t="n">
         <v>0.95</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.9208764197972416</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.9687674280614463</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>0.5667808219178082</v>
       </c>
-      <c r="V13" t="n">
-        <v>0.5094419398984299</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.6223854251891571</v>
-      </c>
       <c r="X13" t="n">
-        <v>0.4332191780821918</v>
+        <v>0.7125</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.3776145748108429</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.49055806010157005</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2.192885375494071</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.9188205284478559</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>2.5060948633615006</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.08821752265861035</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.05454037954106708</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.1426893499734925</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>24.857707509881397</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>14.39212575559936</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>42.93358973787548</v>
+        <v>0.9093406593406593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E14" t="n">
         <v>231.0</v>
@@ -2030,72 +1585,42 @@
         <v>0.0</v>
       </c>
       <c r="R14" t="n">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.4241645244215938</v>
+      </c>
+      <c r="V14" t="n">
         <v>0.5076754385964912</v>
       </c>
-      <c r="S14" t="n">
-        <v>0.4619168868327483</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.5533057510258567</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>0.9969879518072289</v>
       </c>
-      <c r="V14" t="n">
-        <v>0.9718087850764316</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.9996854610616366</v>
-      </c>
       <c r="X14" t="n">
-        <v>0.0030120481927710845</v>
+        <v>0.9978448275862069</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.145389383634612E-4</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.028191214923568284</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>168.54824561403507</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10.571021418575885</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>2687.3950940680484</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.49381194678539253</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.4496982485123095</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.5422530321047148</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>341.32071269487744</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21.131543121206125</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>5513.07721572061</v>
+        <v>0.42435897435897435</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E15" t="n">
         <v>267.0</v>
@@ -2137,72 +1662,42 @@
         <v>0.0</v>
       </c>
       <c r="R15" t="n">
+        <v>0.5868131868131868</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.46742209631728043</v>
+      </c>
+      <c r="V15" t="n">
         <v>0.5866228070175439</v>
       </c>
-      <c r="S15" t="n">
-        <v>0.5408846241628995</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.6309137173842128</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>0.9969879518072289</v>
       </c>
-      <c r="V15" t="n">
-        <v>0.9718087850764316</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.9996854610616366</v>
-      </c>
       <c r="X15" t="n">
-        <v>0.0030120481927710845</v>
+        <v>0.9981343283582089</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.145389383634612E-4</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.028191214923568284</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>194.75877192982455</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>12.21982194144987</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>3104.053350806267</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.4146260666772672</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.3715634460948862</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.46267946154304895</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>469.7214854111405</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>29.07556969211973</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>7588.441987317182</v>
+        <v>0.4675141242937853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E16" t="n">
         <v>329.0</v>
@@ -2244,72 +1739,42 @@
         <v>0.0</v>
       </c>
       <c r="R16" t="n">
+        <v>0.7230769230769231</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.5670103092783505</v>
+      </c>
+      <c r="V16" t="n">
         <v>0.7225877192982456</v>
       </c>
-      <c r="S16" t="n">
-        <v>0.6797644658496913</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.7616920320498506</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
         <v>0.9969879518072289</v>
       </c>
-      <c r="V16" t="n">
-        <v>0.9718087850764316</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.9996854610616366</v>
-      </c>
       <c r="X16" t="n">
-        <v>0.0030120481927710845</v>
+        <v>0.9984848484848485</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.145389383634612E-4</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.028191214923568284</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>239.89912280701753</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15.059427297659655</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>3821.6319907809784</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.2782503842688292</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.23988360770777337</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.3227535098607833</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>862.1699604743081</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>53.29815449942093</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>13946.768846421244</v>
+        <v>0.5667808219178082</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E17" t="n">
         <v>409.0</v>
@@ -2351,72 +1816,42 @@
         <v>0.0</v>
       </c>
       <c r="R17" t="n">
+        <v>0.8989010989010989</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.7819905213270142</v>
+      </c>
+      <c r="V17" t="n">
         <v>0.8980263157894737</v>
       </c>
-      <c r="S17" t="n">
-        <v>0.8668433505896651</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.92255915550656</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>0.9969879518072289</v>
       </c>
-      <c r="V17" t="n">
-        <v>0.9718087850764316</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.9996854610616366</v>
-      </c>
       <c r="X17" t="n">
-        <v>0.0030120481927710845</v>
+        <v>0.998780487804878</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.145389383634612E-4</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.028191214923568284</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>298.14473684210526</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>18.723438922109754</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>4747.540474612346</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.10228176180632853</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.07788463966226934</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.13432120689741797</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>2914.9354838709673</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>178.5897435066913</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>47577.473981935116</v>
+        <v>0.7806603773584906</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
         <v>149</v>
-      </c>
-      <c r="D18" t="s">
-        <v>159</v>
       </c>
       <c r="E18" t="n">
         <v>439.0</v>
@@ -2458,72 +1893,42 @@
         <v>0.0</v>
       </c>
       <c r="R18" t="n">
+        <v>0.9648351648351648</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.9116022099447514</v>
+      </c>
+      <c r="V18" t="n">
         <v>0.9638157894736842</v>
       </c>
-      <c r="S18" t="n">
-        <v>0.9424381665815494</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.9774440925884317</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>0.9969879518072289</v>
       </c>
-      <c r="V18" t="n">
-        <v>0.9718087850764316</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.9996854610616366</v>
-      </c>
       <c r="X18" t="n">
-        <v>0.0030120481927710845</v>
+        <v>0.9988636363636364</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.145389383634612E-4</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.028191214923568284</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>319.9868421052631</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>20.097444115122272</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>5094.756255271998</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.036293528382890794</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.022598102092622026</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0.05828897475906856</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>8816.636363636355</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>525.9634977015564</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>147791.7709276137</v>
+        <v>0.9093406593406593</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" t="s">
         <v>150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>160</v>
       </c>
       <c r="E19" t="n">
         <v>60.0</v>
@@ -2565,72 +1970,42 @@
         <v>0.0</v>
       </c>
       <c r="R19" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.4339622641509434</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="V19" t="n">
         <v>0.7658227848101266</v>
       </c>
-      <c r="S19" t="n">
-        <v>0.6614741160000014</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.8455184043865208</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>0.43457943925233644</v>
       </c>
-      <c r="V19" t="n">
-        <v>0.34453680960182254</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.5291566607931539</v>
-      </c>
       <c r="X19" t="n">
-        <v>0.5654205607476636</v>
+        <v>0.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.4708433392068462</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.6554631903981775</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1.3544303797468353</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.102208477164548</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.664369029623502</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.5388593983939023</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0.34236554221224974</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0.8481269737636843</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>2.513513513513513</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1.3174968145934338</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>4.79526789942535</v>
+        <v>0.7153846153846154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E20" t="n">
         <v>231.0</v>
@@ -2672,72 +2047,42 @@
         <v>0.0</v>
       </c>
       <c r="R20" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.5564462257849031</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2581005586592179</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.9596774193548387</v>
+      </c>
+      <c r="V20" t="n">
         <v>0.8670411985018727</v>
       </c>
-      <c r="S20" t="n">
-        <v>0.8210654919633229</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.9026051043088614</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>0.5564085447263017</v>
       </c>
-      <c r="V20" t="n">
-        <v>0.5311377790258563</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.5813907432142379</v>
-      </c>
       <c r="X20" t="n">
-        <v>0.44359145527369825</v>
+        <v>0.2583705357142857</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.41860925678576205</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.4688622209741437</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.9545940035452298</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.815829415946753</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>2.1039628971441884</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.23895894978307708</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0.17532961542042713</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0.325680174136619</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>8.179622505537363</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>5.663029854098534</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11.814563238558762</v>
+        <v>0.9591484464902187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E21" t="n">
         <v>247.0</v>
@@ -2779,72 +2124,42 @@
         <v>0.0</v>
       </c>
       <c r="R21" t="n">
+        <v>0.9014598540145985</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5261958997722096</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8953488372093024</v>
+      </c>
+      <c r="V21" t="n">
         <v>0.9</v>
       </c>
-      <c r="S21" t="n">
-        <v>0.8588488125224307</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.9301299890175101</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
         <v>0.5261363636363636</v>
       </c>
-      <c r="V21" t="n">
-        <v>0.4794570039497069</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.572363301573603</v>
-      </c>
       <c r="X21" t="n">
-        <v>0.4738636363636364</v>
+        <v>0.5427631578947368</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.4276366984263969</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.5205429960502931</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1.8992805755395683</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.708180982487575</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>2.1117590826756274</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.19006479481641464</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.131877578786073</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0.27392545845268995</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>9.992805755395686</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>6.46054379056873</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>15.456309886923417</v>
+        <v>0.8938223938223938</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E22" t="n">
         <v>322.0</v>
@@ -2886,72 +2201,42 @@
         <v>0.0</v>
       </c>
       <c r="R22" t="n">
+        <v>0.8451443569553806</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.6147540983606558</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.7740384615384616</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.7177033492822966</v>
+      </c>
+      <c r="V22" t="n">
         <v>0.8442408376963351</v>
       </c>
-      <c r="S22" t="n">
-        <v>0.8044686806745057</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.8771584332283052</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
         <v>0.6142857142857143</v>
       </c>
-      <c r="V22" t="n">
-        <v>0.5520166886000515</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.6730261972011908</v>
-      </c>
       <c r="X22" t="n">
-        <v>0.38571428571428573</v>
+        <v>0.7733812949640287</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.32697380279880917</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.4479833113999485</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>2.1887725421756836</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.8580985230355305</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>2.578294520979282</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.2535614270059662</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0.1967493091107991</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0.3267782619205803</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>8.632119514472455</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>5.916832570058679</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>12.59347572030371</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E23" t="n">
         <v>41.0</v>
@@ -2993,72 +2278,42 @@
         <v>0.0</v>
       </c>
       <c r="R23" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.6477272727272727</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="V23" t="n">
         <v>0.8137254901960784</v>
       </c>
-      <c r="S23" t="n">
-        <v>0.6863919892154088</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.8971081708482579</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
         <v>0.6460674157303371</v>
       </c>
-      <c r="V23" t="n">
-        <v>0.5425666536921067</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.7374806476995498</v>
-      </c>
       <c r="X23" t="n">
-        <v>0.3539325842696629</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2625193523004501</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.45743334630789334</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>2.2990974167444755</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.6864532603816762</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>3.1342990973167155</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.2883205456095482</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.15920591026919909</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0.5221460489753571</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>7.974101921470342</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>3.483842955557965</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>18.251770319484205</v>
+        <v>0.8582089552238806</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E24" t="n">
         <v>46.0</v>
@@ -3100,72 +2355,42 @@
         <v>0.0</v>
       </c>
       <c r="R24" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.5348837209302325</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="V24" t="n">
         <v>0.9117647058823529</v>
       </c>
-      <c r="S24" t="n">
-        <v>0.802503441843435</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.9633405182401275</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="W24" t="n">
         <v>0.5449438202247191</v>
       </c>
-      <c r="V24" t="n">
-        <v>0.441772719777758</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.644395680650444</v>
-      </c>
       <c r="X24" t="n">
-        <v>0.4550561797752809</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.355604319349556</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.5582272802222419</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>2.0036310820624545</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.5716214939337307</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>2.5543920902726214</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.16191631291691938</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.06567056817997517</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.39921829695093203</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12.374485596707816</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>4.314221119761014</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>35.49375183430831</v>
+        <v>0.9150943396226415</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E25" t="n">
         <v>145.0</v>
@@ -3207,72 +2432,42 @@
         <v>0.0</v>
       </c>
       <c r="R25" t="n">
+        <v>0.8238636363636364</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.6231884057971014</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.847953216374269</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.581081081081081</v>
+      </c>
+      <c r="V25" t="n">
         <v>0.8220338983050848</v>
       </c>
-      <c r="S25" t="n">
-        <v>0.759029204289227</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.87135721674176</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="W25" t="n">
         <v>0.6214285714285714</v>
       </c>
-      <c r="V25" t="n">
-        <v>0.5043026569606661</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.7259203135968404</v>
-      </c>
       <c r="X25" t="n">
-        <v>0.37857142857142856</v>
+        <v>0.8459302325581395</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2740796864031595</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.49569734303933377</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2.171410297409658</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.5960168657584235</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>2.9542436429430414</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.2863822326125072</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.19868199947043594</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0.4127942308549601</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>7.582210242587604</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>4.087969340670691</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>14.063195531052667</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E26" t="n">
         <v>160.0</v>
@@ -3314,72 +2509,42 @@
         <v>0.0</v>
       </c>
       <c r="R26" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V26" t="n">
         <v>0.9067796610169492</v>
       </c>
-      <c r="S26" t="n">
-        <v>0.8548921868222333</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.9413853976379608</v>
-      </c>
-      <c r="U26" t="n">
+      <c r="W26" t="n">
         <v>0.35</v>
       </c>
-      <c r="V26" t="n">
-        <v>0.24873402883060286</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.46687288989247716</v>
-      </c>
       <c r="X26" t="n">
-        <v>0.65</v>
+        <v>0.779126213592233</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.5331271101075229</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.7512659711693971</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1.3950456323337679</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.1672555225606946</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.6672890199946144</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.2663438256658595</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.15221565513963245</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0.46604295336935647</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>5.237762237762238</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>2.586286604167933</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>10.607545666097701</v>
+        <v>0.5975609756097561</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E27" t="n">
         <v>136.0</v>
@@ -3421,72 +2586,42 @@
         <v>0.0</v>
       </c>
       <c r="R27" t="n">
+        <v>0.8774193548387097</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.5747126436781609</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.7861271676300579</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.7246376811594203</v>
+      </c>
+      <c r="V27" t="n">
         <v>0.875</v>
       </c>
-      <c r="S27" t="n">
-        <v>0.8139316778003154</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.9180436236216234</v>
-      </c>
-      <c r="U27" t="n">
+      <c r="W27" t="n">
         <v>0.5738636363636364</v>
       </c>
-      <c r="V27" t="n">
-        <v>0.4695905909134112</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0.6719576833292751</v>
-      </c>
       <c r="X27" t="n">
-        <v>0.42613636363636365</v>
+        <v>0.7844827586206896</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.32804231667072487</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.5304094090865887</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.0533333333333332</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1.5997657896016573</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>2.6354968990977166</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0.21782178217821782</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.13853754303391344</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0.34247993541851895</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>9.426666666666666</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>4.993862692617875</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>17.794250646058774</v>
+        <v>0.7214285714285714</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E28" t="n">
         <v>149.0</v>
@@ -3528,72 +2663,42 @@
         <v>0.0</v>
       </c>
       <c r="R28" t="n">
+        <v>0.9612903225806452</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.7129186602870813</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="V28" t="n">
         <v>0.9583333333333334</v>
       </c>
-      <c r="S28" t="n">
-        <v>0.9144399704846495</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.9801965090310534</v>
-      </c>
-      <c r="U28" t="n">
+      <c r="W28" t="n">
         <v>0.3125</v>
       </c>
-      <c r="V28" t="n">
-        <v>0.22522270411870549</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.41546244588062897</v>
-      </c>
       <c r="X28" t="n">
-        <v>0.6875</v>
+        <v>0.7119047619047619</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.5845375541193709</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.7747772958812944</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1.393939393939394</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1.2062555195543927</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.6108254034716634</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.13333333333333322</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.0590845425906511</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0.30088711866563067</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10.454545454545464</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>4.227319545235157</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>25.855041118041914</v>
+        <v>0.8088235294117647</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E29" t="n">
         <v>84.0</v>
@@ -3635,72 +2740,42 @@
         <v>0.0</v>
       </c>
       <c r="R29" t="n">
+        <v>0.7850467289719626</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.4430379746835443</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.4883720930232558</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.7526881720430108</v>
+      </c>
+      <c r="V29" t="n">
         <v>0.7824074074074074</v>
       </c>
-      <c r="S29" t="n">
-        <v>0.6956257386675626</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.8497891785126228</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="W29" t="n">
         <v>0.44339622641509435</v>
       </c>
-      <c r="V29" t="n">
-        <v>0.36841805661984545</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.5210449822748139</v>
-      </c>
       <c r="X29" t="n">
-        <v>0.5566037735849056</v>
+        <v>0.4884393063583815</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.47895501772518606</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.6315819433801545</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1.4056811048336473</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.1850948977308282</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1.6673258591103481</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.49074074074074064</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0.32968568661195813</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0.7304729456035649</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>2.8644067796610178</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1.646160629850473</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>4.98421967491306</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E30" t="n">
         <v>51.0</v>
@@ -3742,72 +2817,42 @@
         <v>0.0</v>
       </c>
       <c r="R30" t="n">
+        <v>0.5204081632653061</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.5948275862068966</v>
+      </c>
+      <c r="V30" t="n">
         <v>0.5202020202020202</v>
       </c>
-      <c r="S30" t="n">
-        <v>0.422888475520206</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.6160063441942252</v>
-      </c>
-      <c r="U30" t="n">
+      <c r="W30" t="n">
         <v>0.6376146788990825</v>
       </c>
-      <c r="V30" t="n">
-        <v>0.5441154984289621</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0.7217442335660861</v>
-      </c>
       <c r="X30" t="n">
-        <v>0.3623853211009174</v>
+        <v>0.5659340659340659</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.278255766433914</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.45588450157103794</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1.4354941823296254</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1.0499915651249627</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1.9625334297394632</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.7524889179565437</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0.5865084359697197</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0.9654414786228989</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1.9076615589606933</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1.0951709449041338</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>3.322926562715649</v>
+        <v>0.594017094017094</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E31" t="n">
         <v>148.0</v>
@@ -3849,72 +2894,42 @@
         <v>0.0</v>
       </c>
       <c r="R31" t="n">
+        <v>0.896969696969697</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="V31" t="n">
         <v>0.8945783132530121</v>
       </c>
-      <c r="S31" t="n">
-        <v>0.8386144718347345</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.9326930811597317</v>
-      </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
         <v>0.5</v>
       </c>
-      <c r="V31" t="n">
-        <v>0.17042358064358776</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.8295764193564122</v>
-      </c>
       <c r="X31" t="n">
-        <v>0.5</v>
+        <v>0.9834437086092715</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.17042358064358776</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.8295764193564122</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1.7891566265060241</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0.7435402020572215</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>4.305189450837612</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.21084337349397586</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0.07896014857092908</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0.5630046162639474</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>8.485714285714288</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.3725852622810732</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>52.461110371466404</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E32" t="n">
         <v>189.0</v>
@@ -3956,72 +2971,42 @@
         <v>0.0</v>
       </c>
       <c r="R32" t="n">
+        <v>0.8217391304347826</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.47435897435897434</v>
+      </c>
+      <c r="V32" t="n">
         <v>0.8203463203463204</v>
       </c>
-      <c r="S32" t="n">
-        <v>0.7657278334273582</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.8644845692004112</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="V32" t="n">
-        <v>0.6993609728071961</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.9148712947042119</v>
-      </c>
       <c r="X32" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.9619289340101523</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.08512870529578814</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.30063902719280405</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>4.922077922077922</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>2.5539168165660464</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.4861551143165</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0.21558441558441555</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0.15891655033130264</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0.2924594080728622</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>22.831325301204824</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>9.730009311839575</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>53.573372676545084</v>
+        <v>0.47468354430379744</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E33" t="n">
         <v>130.0</v>
@@ -4063,72 +3048,42 @@
         <v>0.0</v>
       </c>
       <c r="R33" t="n">
+        <v>0.8609271523178808</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.6878306878306878</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.6612903225806451</v>
+      </c>
+      <c r="V33" t="n">
         <v>0.8585526315789473</v>
       </c>
-      <c r="S33" t="n">
-        <v>0.7942925032544763</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.9051362676569388</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="W33" t="n">
         <v>0.41089108910891087</v>
       </c>
-      <c r="V33" t="n">
-        <v>0.3199229790212972</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0.508389215386598</v>
-      </c>
       <c r="X33" t="n">
-        <v>0.5891089108910891</v>
+        <v>0.6868421052631579</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.4916107846134021</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0.6800770209787029</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1.457375055285272</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1.22317038303169</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1.7364237077940452</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.34424540266328474</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.21818874962696175</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0.5431301909810445</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>4.233535274574946</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>2.313333015075077</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>7.747618178737961</v>
+        <v>0.6587301587301587</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
         <v>133</v>
       </c>
-      <c r="C34" t="s">
-        <v>143</v>
-      </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E34" t="n">
         <v>52.0</v>
@@ -4170,72 +3125,42 @@
         <v>0.0</v>
       </c>
       <c r="R34" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.44086021505376344</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="V34" t="n">
         <v>0.9210526315789473</v>
       </c>
-      <c r="S34" t="n">
-        <v>0.8216813877701985</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.9672543302483456</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="W34" t="n">
         <v>0.4411764705882353</v>
       </c>
-      <c r="V34" t="n">
-        <v>0.37190476075522794</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0.5128163049086528</v>
-      </c>
       <c r="X34" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.3343949044585987</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.48718369509134707</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0.6280952392447721</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1.6481994459833795</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1.4210246826210133</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1.9116919269335626</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.1789473684210527</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.07266237352972153</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0.440697972131639</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>9.21052631578947</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>3.3712512879697596</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>25.16388953756666</v>
+        <v>0.9482758620689655</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E35" t="n">
         <v>41.0</v>
@@ -4277,72 +3202,42 @@
         <v>0.0</v>
       </c>
       <c r="R35" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.6477272727272727</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="V35" t="n">
         <v>0.8137254901960784</v>
       </c>
-      <c r="S35" t="n">
-        <v>0.6863919892154088</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.8971081708482579</v>
-      </c>
-      <c r="U35" t="n">
+      <c r="W35" t="n">
         <v>0.6460674157303371</v>
       </c>
-      <c r="V35" t="n">
-        <v>0.5425666536921067</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0.7374806476995498</v>
-      </c>
       <c r="X35" t="n">
-        <v>0.3539325842696629</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.2625193523004501</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0.45743334630789334</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>2.2990974167444755</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.6864532603816762</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>3.1342990973167155</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0.2883205456095482</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0.15920591026919909</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0.5221460489753571</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>7.974101921470342</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>3.483842955557965</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>18.251770319484205</v>
+        <v>0.8582089552238806</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E36" t="n">
         <v>136.0</v>
@@ -4384,72 +3279,42 @@
         <v>0.0</v>
       </c>
       <c r="R36" t="n">
+        <v>0.8774193548387097</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.5747126436781609</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7861271676300579</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7246376811594203</v>
+      </c>
+      <c r="V36" t="n">
         <v>0.875</v>
       </c>
-      <c r="S36" t="n">
-        <v>0.8139316778003154</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.9180436236216234</v>
-      </c>
-      <c r="U36" t="n">
+      <c r="W36" t="n">
         <v>0.5738636363636364</v>
       </c>
-      <c r="V36" t="n">
-        <v>0.4695905909134112</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.6719576833292751</v>
-      </c>
       <c r="X36" t="n">
-        <v>0.42613636363636365</v>
+        <v>0.7844827586206896</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.32804231667072487</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0.5304094090865887</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>2.0533333333333332</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1.5997657896016573</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>2.6354968990977166</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.21782178217821782</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0.13853754303391344</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0.34247993541851895</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>9.426666666666666</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>4.993862692617875</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>17.794250646058774</v>
+        <v>0.7214285714285714</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E37" t="n">
         <v>53.0</v>
@@ -4491,72 +3356,42 @@
         <v>0.0</v>
       </c>
       <c r="R37" t="n">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2864864864864865</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="V37" t="n">
         <v>0.9385964912280702</v>
       </c>
-      <c r="S37" t="n">
-        <v>0.8445281138883974</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.9772799257142527</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="W37" t="n">
         <v>0.2914438502673797</v>
       </c>
-      <c r="V37" t="n">
-        <v>0.23103259224516048</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.3602511860176896</v>
-      </c>
       <c r="X37" t="n">
-        <v>0.7085561497326203</v>
+        <v>0.28763440860215056</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.6397488139823104</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0.7689674077548396</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1.3246607083747106</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>1.1826537733562226</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>1.483719100081251</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.2106872686302912</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.07452183541944332</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.5956526018589046</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>6.2873315363881455</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>2.0382847495155434</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>19.39402130043728</v>
+        <v>0.9396551724137931</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E38" t="n">
         <v>149.0</v>
@@ -4598,72 +3433,42 @@
         <v>0.0</v>
       </c>
       <c r="R38" t="n">
+        <v>0.9612903225806452</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.7129186602870813</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="V38" t="n">
         <v>0.9583333333333334</v>
       </c>
-      <c r="S38" t="n">
-        <v>0.9144399704846495</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.9801965090310534</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="W38" t="n">
         <v>0.3125</v>
       </c>
-      <c r="V38" t="n">
-        <v>0.22522270411870549</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.41546244588062897</v>
-      </c>
       <c r="X38" t="n">
-        <v>0.6875</v>
+        <v>0.7119047619047619</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.5845375541193709</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0.7747772958812944</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1.393939393939394</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1.2062555195543927</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1.6108254034716634</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.13333333333333322</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.0590845425906511</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0.30088711866563067</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>10.454545454545464</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>4.227319545235157</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>25.855041118041914</v>
+        <v>0.8088235294117647</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
         <v>154</v>
-      </c>
-      <c r="D39" t="s">
-        <v>164</v>
       </c>
       <c r="E39" t="n">
         <v>43.0</v>
@@ -4705,72 +3510,42 @@
         <v>0.0</v>
       </c>
       <c r="R39" t="n">
+        <v>0.7678571428571429</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.7849462365591398</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.5180722891566265</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.9182389937106918</v>
+      </c>
+      <c r="V39" t="n">
         <v>0.7631578947368421</v>
       </c>
-      <c r="S39" t="n">
-        <v>0.6384300282452888</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.8546547955163013</v>
-      </c>
-      <c r="U39" t="n">
+      <c r="W39" t="n">
         <v>0.7834224598930482</v>
       </c>
-      <c r="V39" t="n">
-        <v>0.7189987897224865</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.8364360757151788</v>
-      </c>
       <c r="X39" t="n">
-        <v>0.21657754010695188</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1635639242848212</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0.28100121027751346</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>3.5237166991552957</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>2.588123263702244</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>4.797522417129506</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.3023172265133824</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0.18856074750603752</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0.48470165002828786</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>11.655692729766805</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>5.771835326644601</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>23.537603781519664</v>
+        <v>0.915625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E40" t="n">
         <v>230.0</v>
@@ -4812,72 +3587,42 @@
         <v>0.0</v>
       </c>
       <c r="R40" t="n">
+        <v>0.8582089552238806</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.8556701030927835</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.8455882352941176</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.867595818815331</v>
+      </c>
+      <c r="V40" t="n">
         <v>0.8568773234200744</v>
       </c>
-      <c r="S40" t="n">
-        <v>0.8099966082828343</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.8937087627039795</v>
-      </c>
-      <c r="U40" t="n">
+      <c r="W40" t="n">
         <v>0.8544520547945206</v>
       </c>
-      <c r="V40" t="n">
-        <v>0.8094016980448152</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0.8902973935739161</v>
-      </c>
       <c r="X40" t="n">
-        <v>0.14554794520547945</v>
+        <v>0.8443223443223443</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.10970260642608387</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0.1905983019551848</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>5.887251257380276</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>4.4398680487275755</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.806476901370704</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.16750229082700713</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0.12456031228566869</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0.2252484512719336</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>35.14728800611155</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>21.936173053544486</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>56.31482990078554</v>
+        <v>0.8663194444444444</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E41" t="n">
         <v>114.0</v>
@@ -4919,72 +3664,42 @@
         <v>0.0</v>
       </c>
       <c r="R41" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5966101694915255</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.4892703862660944</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="V41" t="n">
         <v>0.9087301587301587</v>
       </c>
-      <c r="S41" t="n">
-        <v>0.8456467417818692</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.9476283872525242</v>
-      </c>
-      <c r="U41" t="n">
+      <c r="W41" t="n">
         <v>0.5962837837837838</v>
       </c>
-      <c r="V41" t="n">
-        <v>0.5395015240359626</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0.6505989384690778</v>
-      </c>
       <c r="X41" t="n">
-        <v>0.40371621621621623</v>
+        <v>0.4893162393162393</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.34940106153092226</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.4604984759640373</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>2.250913196519891</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.9391267643379122</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>2.6128308429579734</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.15306443635055536</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0.08753039736165474</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0.2676638331539993</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>14.705657631435326</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>7.68293471439189</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>28.147625147444575</v>
+        <v>0.9388297872340425</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E42" t="n">
         <v>251.0</v>
@@ -5026,72 +3741,42 @@
         <v>0.0</v>
       </c>
       <c r="R42" t="n">
+        <v>0.9400749063670412</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5524079320113314</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6136919315403423</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.9241706161137441</v>
+      </c>
+      <c r="V42" t="n">
         <v>0.9384328358208955</v>
       </c>
-      <c r="S42" t="n">
-        <v>0.9029995589676334</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.9614749072137938</v>
-      </c>
-      <c r="U42" t="n">
+      <c r="W42" t="n">
         <v>0.5522598870056498</v>
       </c>
-      <c r="V42" t="n">
-        <v>0.5001744349369969</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0.6032233103157124</v>
-      </c>
       <c r="X42" t="n">
-        <v>0.4477401129943503</v>
+        <v>0.6134146341463415</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.3967766896842876</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0.49982556506300313</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>2.0959320118649654</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.8595055860395346</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>2.3624188232295658</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.11148223078978507</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0.06920870110396932</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0.1795769546837241</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>18.80059267756429</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>10.952204002637092</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>32.27316482988964</v>
+        <v>0.9221698113207547</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E43" t="n">
         <v>27.0</v>
@@ -5133,72 +3818,42 @@
         <v>0.0</v>
       </c>
       <c r="R43" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.8141592920353983</v>
+      </c>
+      <c r="V43" t="n">
         <v>0.5612244897959183</v>
       </c>
-      <c r="S43" t="n">
-        <v>0.42290141789171</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.6906457879180251</v>
-      </c>
-      <c r="U43" t="n">
+      <c r="W43" t="n">
         <v>0.9343434343434344</v>
       </c>
-      <c r="V43" t="n">
-        <v>0.8675754288498054</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0.9686631950104656</v>
-      </c>
       <c r="X43" t="n">
-        <v>0.06565656565656566</v>
+        <v>0.8088235294117647</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.03133680498953433</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0.13242457115019446</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>8.547880690737832</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>3.905678831460129</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>18.70769908537846</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.4696083838940982</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0.34068550868641584</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0.6473185051924693</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>18.20214669051878</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>6.864795723563488</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>48.26336536219287</v>
+        <v>0.8114035087719298</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E44" t="n">
         <v>48.0</v>
@@ -5240,72 +3895,42 @@
         <v>0.0</v>
       </c>
       <c r="R44" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.9180327868852459</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.9056603773584906</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="V44" t="n">
         <v>0.6928571428571428</v>
       </c>
-      <c r="S44" t="n">
-        <v>0.5771288652067961</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.7885193821492438</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="W44" t="n">
         <v>0.9112903225806451</v>
       </c>
-      <c r="V44" t="n">
-        <v>0.8145452556189595</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0.960042685071847</v>
-      </c>
       <c r="X44" t="n">
-        <v>0.08870967741935484</v>
+        <v>0.8981481481481481</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.039957314928153034</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0.18545474438104043</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>7.81038961038961</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>3.4644341682521995</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>17.608123838836704</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0.33704171934260435</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0.2350722858030638</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0.48324335720539596</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>23.173361522198725</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>8.422601675677903</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>63.757578111433006</v>
+        <v>0.7243589743589743</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E45" t="n">
         <v>138.0</v>
@@ -5347,72 +3972,42 @@
         <v>0.0</v>
       </c>
       <c r="R45" t="n">
+        <v>0.8961038961038961</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.9857142857142858</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="V45" t="n">
         <v>0.8935483870967742</v>
       </c>
-      <c r="S45" t="n">
-        <v>0.8351330512441152</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.9329283913148952</v>
-      </c>
-      <c r="U45" t="n">
+      <c r="W45" t="n">
         <v>0.8214285714285714</v>
       </c>
-      <c r="V45" t="n">
-        <v>0.5615065718384327</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0.9429364835445158</v>
-      </c>
       <c r="X45" t="n">
-        <v>0.17857142857142858</v>
+        <v>0.9822695035460993</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.05706351645548419</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0.4384934281615674</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>5.0038709677419355</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>1.624864843400723</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>15.409727623502764</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0.12959326788218795</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0.07724798559948882</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0.21740910070405328</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>38.61212121212121</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>8.96843964823833</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>166.23804842042918</v>
+        <v>0.4107142857142857</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E46" t="n">
         <v>37.0</v>
@@ -5454,72 +4049,42 @@
         <v>0.0</v>
       </c>
       <c r="R46" t="n">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="V46" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S46" t="n">
-        <v>0.6993609728071961</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0.9148712947042119</v>
-      </c>
-      <c r="U46" t="n">
+      <c r="W46" t="n">
         <v>0.6081081081081081</v>
       </c>
-      <c r="V46" t="n">
-        <v>0.4478778234730628</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0.7480015655351097</v>
-      </c>
       <c r="X46" t="n">
-        <v>0.3918918918918919</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.25199843446489034</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0.5521221765269372</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>2.1264367816091956</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>1.3942214911109807</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>3.243195873115788</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0.274074074074074</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0.1357390323017289</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0.5533898157796449</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>7.758620689655174</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>2.784216438216563</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>21.620515625036738</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E47" t="n">
         <v>306.0</v>
@@ -5561,72 +4126,42 @@
         <v>0.0</v>
       </c>
       <c r="R47" t="n">
+        <v>0.9300911854103343</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.6460481099656358</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.7481662591687042</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.8909952606635071</v>
+      </c>
+      <c r="V47" t="n">
         <v>0.9287878787878788</v>
       </c>
-      <c r="S47" t="n">
-        <v>0.8958285882371346</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0.9518791859851168</v>
-      </c>
-      <c r="U47" t="n">
+      <c r="W47" t="n">
         <v>0.6455479452054794</v>
       </c>
-      <c r="V47" t="n">
-        <v>0.5891171055243773</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0.6981989465895944</v>
-      </c>
       <c r="X47" t="n">
-        <v>0.3544520547945205</v>
+        <v>0.7475609756097561</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.30180105341040553</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0.41088289447562265</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>2.62034841165276</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>2.238175204031674</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>3.0677785126396087</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0.11031267582991713</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0.0740328870093671</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0.16437136170600372</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>23.753828759379196</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>14.651332302826015</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>38.51147247688022</v>
+        <v>0.8891509433962265</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E48" t="n">
         <v>60.0</v>
@@ -5668,72 +4203,42 @@
         <v>0.0</v>
       </c>
       <c r="R48" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.4339622641509434</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="V48" t="n">
         <v>0.7658227848101266</v>
       </c>
-      <c r="S48" t="n">
-        <v>0.6614741160000014</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0.8455184043865208</v>
-      </c>
-      <c r="U48" t="n">
+      <c r="W48" t="n">
         <v>0.43457943925233644</v>
       </c>
-      <c r="V48" t="n">
-        <v>0.34453680960182254</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0.5291566607931539</v>
-      </c>
       <c r="X48" t="n">
-        <v>0.5654205607476636</v>
+        <v>0.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.4708433392068462</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0.6554631903981775</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1.3544303797468353</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.102208477164548</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1.664369029623502</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.5388593983939023</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0.34236554221224974</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0.8481269737636843</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>2.513513513513513</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1.3174968145934338</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>4.79526789942535</v>
+        <v>0.7153846153846154</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E49" t="n">
         <v>231.0</v>
@@ -5775,72 +4280,42 @@
         <v>0.0</v>
       </c>
       <c r="R49" t="n">
+        <v>0.868421052631579</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.5564462257849031</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.2581005586592179</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.9596774193548387</v>
+      </c>
+      <c r="V49" t="n">
         <v>0.8670411985018727</v>
       </c>
-      <c r="S49" t="n">
-        <v>0.8210654919633229</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0.9026051043088614</v>
-      </c>
-      <c r="U49" t="n">
+      <c r="W49" t="n">
         <v>0.5564085447263017</v>
       </c>
-      <c r="V49" t="n">
-        <v>0.5311377790258563</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0.5813907432142379</v>
-      </c>
       <c r="X49" t="n">
-        <v>0.44359145527369825</v>
+        <v>0.2583705357142857</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.41860925678576205</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0.4688622209741437</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1.9545940035452298</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1.815829415946753</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>2.1039628971441884</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0.23895894978307708</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0.17532961542042713</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0.325680174136619</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>8.179622505537363</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>5.663029854098534</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>11.814563238558762</v>
+        <v>0.9591484464902187</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E50" t="n">
         <v>41.0</v>
@@ -5882,72 +4357,42 @@
         <v>0.0</v>
       </c>
       <c r="R50" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.6477272727272727</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="V50" t="n">
         <v>0.8137254901960784</v>
       </c>
-      <c r="S50" t="n">
-        <v>0.6863919892154088</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.8971081708482579</v>
-      </c>
-      <c r="U50" t="n">
+      <c r="W50" t="n">
         <v>0.6460674157303371</v>
       </c>
-      <c r="V50" t="n">
-        <v>0.5425666536921067</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0.7374806476995498</v>
-      </c>
       <c r="X50" t="n">
-        <v>0.3539325842696629</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.2625193523004501</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0.45743334630789334</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>2.2990974167444755</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>1.6864532603816762</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>3.1342990973167155</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0.2883205456095482</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0.15920591026919909</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0.5221460489753571</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>7.974101921470342</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>3.483842955557965</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>18.251770319484205</v>
+        <v>0.8582089552238806</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E51" t="n">
         <v>145.0</v>
@@ -5989,72 +4434,42 @@
         <v>0.0</v>
       </c>
       <c r="R51" t="n">
+        <v>0.8238636363636364</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.6231884057971014</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.847953216374269</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.581081081081081</v>
+      </c>
+      <c r="V51" t="n">
         <v>0.8220338983050848</v>
       </c>
-      <c r="S51" t="n">
-        <v>0.759029204289227</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0.87135721674176</v>
-      </c>
-      <c r="U51" t="n">
+      <c r="W51" t="n">
         <v>0.6214285714285714</v>
       </c>
-      <c r="V51" t="n">
-        <v>0.5043026569606661</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0.7259203135968404</v>
-      </c>
       <c r="X51" t="n">
-        <v>0.37857142857142856</v>
+        <v>0.8459302325581395</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.2740796864031595</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0.49569734303933377</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>2.171410297409658</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>1.5960168657584235</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>2.9542436429430414</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0.2863822326125072</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0.19868199947043594</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0.4127942308549601</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>7.582210242587604</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>4.087969340670691</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>14.063195531052667</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E52" t="n">
         <v>136.0</v>
@@ -6096,72 +4511,42 @@
         <v>0.0</v>
       </c>
       <c r="R52" t="n">
+        <v>0.8774193548387097</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.5747126436781609</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.7861271676300579</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.7246376811594203</v>
+      </c>
+      <c r="V52" t="n">
         <v>0.875</v>
       </c>
-      <c r="S52" t="n">
-        <v>0.8139316778003154</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0.9180436236216234</v>
-      </c>
-      <c r="U52" t="n">
+      <c r="W52" t="n">
         <v>0.5738636363636364</v>
       </c>
-      <c r="V52" t="n">
-        <v>0.4695905909134112</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0.6719576833292751</v>
-      </c>
       <c r="X52" t="n">
-        <v>0.42613636363636365</v>
+        <v>0.7844827586206896</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.32804231667072487</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0.5304094090865887</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>2.0533333333333332</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>1.5997657896016573</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>2.6354968990977166</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0.21782178217821782</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0.13853754303391344</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0.34247993541851895</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>9.426666666666666</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>4.993862692617875</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>17.794250646058774</v>
+        <v>0.7214285714285714</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E53" t="n">
         <v>52.0</v>
@@ -6203,72 +4588,42 @@
         <v>0.0</v>
       </c>
       <c r="R53" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.44086021505376344</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="V53" t="n">
         <v>0.9210526315789473</v>
       </c>
-      <c r="S53" t="n">
-        <v>0.8216813877701985</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0.9672543302483456</v>
-      </c>
-      <c r="U53" t="n">
+      <c r="W53" t="n">
         <v>0.4411764705882353</v>
       </c>
-      <c r="V53" t="n">
-        <v>0.37190476075522794</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0.5128163049086528</v>
-      </c>
       <c r="X53" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.3343949044585987</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.48718369509134707</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0.6280952392447721</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>1.6481994459833795</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>1.4210246826210133</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>1.9116919269335626</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0.1789473684210527</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0.07266237352972153</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0.440697972131639</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>9.21052631578947</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>3.3712512879697596</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>25.16388953756666</v>
+        <v>0.9482758620689655</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E54" t="n">
         <v>148.0</v>
@@ -6310,72 +4665,42 @@
         <v>0.0</v>
       </c>
       <c r="R54" t="n">
+        <v>0.896969696969697</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="V54" t="n">
         <v>0.8945783132530121</v>
       </c>
-      <c r="S54" t="n">
-        <v>0.8386144718347345</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0.9326930811597317</v>
-      </c>
-      <c r="U54" t="n">
+      <c r="W54" t="n">
         <v>0.5</v>
       </c>
-      <c r="V54" t="n">
-        <v>0.17042358064358776</v>
-      </c>
-      <c r="W54" t="n">
-        <v>0.8295764193564122</v>
-      </c>
       <c r="X54" t="n">
-        <v>0.5</v>
+        <v>0.9834437086092715</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.17042358064358776</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>0.8295764193564122</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1.7891566265060241</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0.7435402020572215</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>4.305189450837612</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0.21084337349397586</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0.07896014857092908</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0.5630046162639474</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>8.485714285714288</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1.3725852622810732</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>52.461110371466404</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E55" t="n">
         <v>189.0</v>
@@ -6417,72 +4742,42 @@
         <v>0.0</v>
       </c>
       <c r="R55" t="n">
+        <v>0.8217391304347826</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8409090909090909</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.47435897435897434</v>
+      </c>
+      <c r="V55" t="n">
         <v>0.8203463203463204</v>
       </c>
-      <c r="S55" t="n">
-        <v>0.7657278334273582</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0.8644845692004112</v>
-      </c>
-      <c r="U55" t="n">
+      <c r="W55" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="V55" t="n">
-        <v>0.6993609728071961</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0.9148712947042119</v>
-      </c>
       <c r="X55" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.9619289340101523</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.08512870529578814</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0.30063902719280405</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>4.922077922077922</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>2.5539168165660464</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>9.4861551143165</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0.21558441558441555</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>0.15891655033130264</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0.2924594080728622</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>22.831325301204824</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>9.730009311839575</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>53.573372676545084</v>
+        <v>0.47468354430379744</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E56" t="n">
         <v>130.0</v>
@@ -6524,72 +4819,42 @@
         <v>0.0</v>
       </c>
       <c r="R56" t="n">
+        <v>0.8609271523178808</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.6878306878306878</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.6612903225806451</v>
+      </c>
+      <c r="V56" t="n">
         <v>0.8585526315789473</v>
       </c>
-      <c r="S56" t="n">
-        <v>0.7942925032544763</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0.9051362676569388</v>
-      </c>
-      <c r="U56" t="n">
+      <c r="W56" t="n">
         <v>0.41089108910891087</v>
       </c>
-      <c r="V56" t="n">
-        <v>0.3199229790212972</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0.508389215386598</v>
-      </c>
       <c r="X56" t="n">
-        <v>0.5891089108910891</v>
+        <v>0.6868421052631579</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.4916107846134021</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0.6800770209787029</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>1.457375055285272</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>1.22317038303169</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>1.7364237077940452</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0.34424540266328474</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0.21818874962696175</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0.5431301909810445</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>4.233535274574946</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>2.313333015075077</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>7.747618178737961</v>
+        <v>0.6587301587301587</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E57" t="n">
         <v>105.0</v>
@@ -6631,72 +4896,42 @@
         <v>0.0</v>
       </c>
       <c r="R57" t="n">
+        <v>0.9905660377358491</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.7342657342657343</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V57" t="n">
         <v>0.985981308411215</v>
       </c>
-      <c r="S57" t="n">
-        <v>0.941521205947253</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0.9967558711186361</v>
-      </c>
-      <c r="U57" t="n">
+      <c r="W57" t="n">
         <v>0.19791666666666666</v>
       </c>
-      <c r="V57" t="n">
-        <v>0.10955752135310617</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0.3310446403201731</v>
-      </c>
       <c r="X57" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.7326388888888888</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.668955359679827</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0.8904424786468939</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>1.2292753974996966</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>1.0661921478433178</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>1.4173036313901868</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0.07083128381701892</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0.013095684759254461</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0.3831087002626283</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>17.35497835497842</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>2.9825069669391193</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>100.98728252456674</v>
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E58" t="n">
         <v>133.0</v>
@@ -6738,72 +4973,42 @@
         <v>0.0</v>
       </c>
       <c r="R58" t="n">
+        <v>0.7823529411764706</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.5758389261744966</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.2962138084632517</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.9206008583690987</v>
+      </c>
+      <c r="V58" t="n">
         <v>0.7807017543859649</v>
       </c>
-      <c r="S58" t="n">
-        <v>0.7128932797030446</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0.8361755775778322</v>
-      </c>
-      <c r="U58" t="n">
+      <c r="W58" t="n">
         <v>0.5757372654155496</v>
       </c>
-      <c r="V58" t="n">
-        <v>0.5399724159493212</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0.6107261066126609</v>
-      </c>
       <c r="X58" t="n">
-        <v>0.4242627345844504</v>
+        <v>0.2966666666666667</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.38927389338733903</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0.46002758405067884</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>1.840137468473712</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>1.639714998258079</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>2.0650575901775663</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0.3808998631619795</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>0.28517642699546825</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0.5087542027417303</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>4.831026856240126</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>3.2700617074366254</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>7.137119288188745</v>
+        <v>0.9197002141327623</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E59" t="n">
         <v>155.0</v>
@@ -6845,72 +5050,42 @@
         <v>0.0</v>
       </c>
       <c r="R59" t="n">
+        <v>0.8806818181818182</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.5221843003412969</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.5254237288135594</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.8793103448275862</v>
+      </c>
+      <c r="V59" t="n">
         <v>0.8785310734463276</v>
       </c>
-      <c r="S59" t="n">
-        <v>0.8222047320975807</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0.918775797886211</v>
-      </c>
-      <c r="U59" t="n">
+      <c r="W59" t="n">
         <v>0.5221088435374149</v>
       </c>
-      <c r="V59" t="n">
-        <v>0.4650945740820326</v>
-      </c>
-      <c r="W59" t="n">
-        <v>0.5785528081577457</v>
-      </c>
       <c r="X59" t="n">
-        <v>0.477891156462585</v>
+        <v>0.5253378378378378</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.4214471918422543</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>0.5349054259179674</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>1.8383497195246998</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>1.6119270691028984</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>2.0965772931385693</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0.23265058245459067</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>0.1542428040413851</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0.3509161665781023</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>7.901762807249853</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>4.7653688235089975</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>13.10241825438828</v>
+        <v>0.8771428571428571</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E60" t="n">
         <v>114.0</v>
@@ -6952,72 +5127,42 @@
         <v>0.0</v>
       </c>
       <c r="R60" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.4693333333333333</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.36421725239616615</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="V60" t="n">
         <v>0.9087301587301587</v>
       </c>
-      <c r="S60" t="n">
-        <v>0.8456467417818692</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0.9476283872525242</v>
-      </c>
-      <c r="U60" t="n">
+      <c r="W60" t="n">
         <v>0.46941489361702127</v>
       </c>
-      <c r="V60" t="n">
-        <v>0.4195349131984847</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0.519913508068091</v>
-      </c>
       <c r="X60" t="n">
-        <v>0.5305851063829787</v>
+        <v>0.3646496815286624</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.480086491931909</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>0.5804650868015153</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1.7126944344989457</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>1.534284020502487</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>1.9118508612264522</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0.19443320293178654</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>0.1109135287362451</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0.34084453747939714</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>8.808652064944969</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>4.648332102336399</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>16.692514539195443</v>
+        <v>0.9388297872340425</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E61" t="n">
         <v>16.0</v>
@@ -7059,72 +5204,42 @@
         <v>0.0</v>
       </c>
       <c r="R61" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.5566343042071198</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.10457516339869281</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="V61" t="n">
         <v>0.66</v>
       </c>
-      <c r="S61" t="n">
-        <v>0.4644982825388061</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0.8128801971606984</v>
-      </c>
-      <c r="U61" t="n">
+      <c r="W61" t="n">
         <v>0.5564516129032258</v>
       </c>
-      <c r="V61" t="n">
-        <v>0.5007924458220965</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0.6107288303391785</v>
-      </c>
       <c r="X61" t="n">
-        <v>0.4435483870967742</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.38927116966082165</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0.4992075541779035</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>1.488</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>1.0938392332829312</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>2.0241950851906334</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0.6110144927536232</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>0.35072523860254157</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>1.0644763172520142</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>2.4352941176470586</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>1.0333127533963553</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>5.7394602166218505</v>
+        <v>0.9530386740331491</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E62" t="n">
         <v>46.0</v>
@@ -7166,72 +5281,42 @@
         <v>0.0</v>
       </c>
       <c r="R62" t="n">
+        <v>0.8070175438596491</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.6178571428571429</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.3006535947712418</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.9402173913043478</v>
+      </c>
+      <c r="V62" t="n">
         <v>0.8017241379310345</v>
       </c>
-      <c r="S62" t="n">
-        <v>0.6818595172282421</v>
-      </c>
-      <c r="T62" t="n">
-        <v>0.8841038456587907</v>
-      </c>
-      <c r="U62" t="n">
+      <c r="W62" t="n">
         <v>0.6174377224199288</v>
       </c>
-      <c r="V62" t="n">
-        <v>0.5593907766249698</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0.6723170663037049</v>
-      </c>
       <c r="X62" t="n">
-        <v>0.38256227758007116</v>
+        <v>0.30194805194805197</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.327682933696295</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>0.44060922337503017</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>2.0956696070569367</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>1.7225439246434493</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>2.5496192225410126</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0.3211269005266819</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>0.18984628042721335</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0.5431893951770648</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>6.525985844287159</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>3.2770136823555385</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>12.996128599995194</v>
+        <v>0.9378378378378378</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E63" t="n">
         <v>71.0</v>
@@ -7273,72 +5358,42 @@
         <v>0.0</v>
       </c>
       <c r="R63" t="n">
+        <v>0.7171717171717171</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.4965034965034965</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V63" t="n">
         <v>0.715</v>
       </c>
-      <c r="S63" t="n">
-        <v>0.6198591861871973</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0.7942336095837988</v>
-      </c>
-      <c r="U63" t="n">
+      <c r="W63" t="n">
         <v>0.5382165605095541</v>
       </c>
-      <c r="V63" t="n">
-        <v>0.46025299419716437</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0.6143546355022006</v>
-      </c>
       <c r="X63" t="n">
-        <v>0.46178343949044587</v>
+        <v>0.4965277777777778</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.3856453644977994</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0.5397470058028356</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>1.5483448275862068</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>1.2558726794700243</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>1.9089289418451612</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0.529526627218935</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0.37592714402453153</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0.7458850827637049</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>2.9240169388989714</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>1.7113294731837192</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>4.996042663288042</v>
+        <v>0.7477876106194691</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E64" t="n">
         <v>105.0</v>
@@ -7380,72 +5435,42 @@
         <v>0.0</v>
       </c>
       <c r="R64" t="n">
+        <v>0.9905660377358491</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.7342657342657343</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V64" t="n">
         <v>0.985981308411215</v>
       </c>
-      <c r="S64" t="n">
-        <v>0.941521205947253</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0.9967558711186361</v>
-      </c>
-      <c r="U64" t="n">
+      <c r="W64" t="n">
         <v>0.19791666666666666</v>
       </c>
-      <c r="V64" t="n">
-        <v>0.10955752135310617</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0.3310446403201731</v>
-      </c>
       <c r="X64" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.7326388888888888</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.668955359679827</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0.8904424786468939</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>1.2292753974996966</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>1.0661921478433178</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>1.4173036313901868</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0.07083128381701892</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0.013095684759254461</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0.3831087002626283</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>17.35497835497842</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>2.9825069669391193</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>100.98728252456674</v>
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E65" t="n">
         <v>5.0</v>
@@ -7487,72 +5512,42 @@
         <v>0.0</v>
       </c>
       <c r="R65" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.8369565217391305</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="V65" t="n">
         <v>0.6111111111111112</v>
       </c>
-      <c r="S65" t="n">
-        <v>0.3091761023042364</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0.8465694424914204</v>
-      </c>
-      <c r="U65" t="n">
+      <c r="W65" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="V65" t="n">
-        <v>0.7447171331768502</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0.8955045317486597</v>
-      </c>
       <c r="X65" t="n">
-        <v>0.16666666666666666</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.10449546825134026</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>0.25528286682314977</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>1.8363873952646095</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>7.321137402224003</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0.46666666666666656</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0.20471227431955896</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>1.0638237423801138</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>7.857142857142859</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>1.8488446295427454</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>33.39095827258304</v>
+        <v>0.9567901234567902</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E66" t="n">
         <v>16.0</v>
@@ -7594,72 +5589,42 @@
         <v>0.0</v>
       </c>
       <c r="R66" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.5566343042071198</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.10457516339869281</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="V66" t="n">
         <v>0.66</v>
       </c>
-      <c r="S66" t="n">
-        <v>0.4644982825388061</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0.8128801971606984</v>
-      </c>
-      <c r="U66" t="n">
+      <c r="W66" t="n">
         <v>0.5564516129032258</v>
       </c>
-      <c r="V66" t="n">
-        <v>0.5007924458220965</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0.6107288303391785</v>
-      </c>
       <c r="X66" t="n">
-        <v>0.4435483870967742</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.38927116966082165</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>0.4992075541779035</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>1.488</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>1.0938392332829312</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>2.0241950851906334</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0.6110144927536232</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>0.35072523860254157</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>1.0644763172520142</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>2.4352941176470586</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>1.0333127533963553</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>5.7394602166218505</v>
+        <v>0.9530386740331491</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E67" t="n">
         <v>41.0</v>
@@ -7701,72 +5666,42 @@
         <v>0.0</v>
       </c>
       <c r="R67" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.6477272727272727</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="V67" t="n">
         <v>0.8137254901960784</v>
       </c>
-      <c r="S67" t="n">
-        <v>0.6863919892154088</v>
-      </c>
-      <c r="T67" t="n">
-        <v>0.8971081708482579</v>
-      </c>
-      <c r="U67" t="n">
+      <c r="W67" t="n">
         <v>0.6460674157303371</v>
       </c>
-      <c r="V67" t="n">
-        <v>0.5425666536921067</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0.7374806476995498</v>
-      </c>
       <c r="X67" t="n">
-        <v>0.3539325842696629</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.2625193523004501</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>0.45743334630789334</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>2.2990974167444755</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>1.6864532603816762</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>3.1342990973167155</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0.2883205456095482</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>0.15920591026919909</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0.5221460489753571</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>7.974101921470342</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>3.483842955557965</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>18.251770319484205</v>
+        <v>0.8582089552238806</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E68" t="n">
         <v>27.0</v>
@@ -7808,72 +5743,42 @@
         <v>0.0</v>
       </c>
       <c r="R68" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.8141592920353983</v>
+      </c>
+      <c r="V68" t="n">
         <v>0.5612244897959183</v>
       </c>
-      <c r="S68" t="n">
-        <v>0.42290141789171</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0.6906457879180251</v>
-      </c>
-      <c r="U68" t="n">
+      <c r="W68" t="n">
         <v>0.9343434343434344</v>
       </c>
-      <c r="V68" t="n">
-        <v>0.8675754288498054</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0.9686631950104656</v>
-      </c>
       <c r="X68" t="n">
-        <v>0.06565656565656566</v>
+        <v>0.8088235294117647</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.03133680498953433</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0.13242457115019446</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>8.547880690737832</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>3.905678831460129</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>18.70769908537846</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0.4696083838940982</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>0.34068550868641584</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0.6473185051924693</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>18.20214669051878</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>6.864795723563488</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>48.26336536219287</v>
+        <v>0.8114035087719298</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E69" t="n">
         <v>90.0</v>
@@ -7915,72 +5820,42 @@
         <v>0.0</v>
       </c>
       <c r="R69" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.7879858657243817</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="V69" t="n">
         <v>0.7669491525423728</v>
       </c>
-      <c r="S69" t="n">
-        <v>0.682993600973236</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0.8340717773452628</v>
-      </c>
-      <c r="U69" t="n">
+      <c r="W69" t="n">
         <v>0.7869718309859155</v>
       </c>
-      <c r="V69" t="n">
-        <v>0.7356862702735648</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0.8305976857202034</v>
-      </c>
       <c r="X69" t="n">
-        <v>0.2130281690140845</v>
+        <v>0.5993377483443708</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.16940231427979652</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0.26431372972643524</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>3.6002241210253536</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>2.818854278095589</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>4.598185093260519</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0.2961361999014144</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0.21229120283532354</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0.4130960102010333</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>12.157325319308788</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>7.2810330605417874</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>20.29939401325951</v>
+        <v>0.8904382470119522</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E70" t="n">
         <v>117.0</v>
@@ -8022,72 +5897,42 @@
         <v>0.0</v>
       </c>
       <c r="R70" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.5894495412844036</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.3952702702702703</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.8682432432432432</v>
+      </c>
+      <c r="V70" t="n">
         <v>0.7484076433121019</v>
       </c>
-      <c r="S70" t="n">
-        <v>0.6751523482584644</v>
-      </c>
-      <c r="T70" t="n">
-        <v>0.8097972447874077</v>
-      </c>
-      <c r="U70" t="n">
+      <c r="W70" t="n">
         <v>0.5892448512585813</v>
       </c>
-      <c r="V70" t="n">
-        <v>0.5425358993771978</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0.6343984574971755</v>
-      </c>
       <c r="X70" t="n">
-        <v>0.4107551487414188</v>
+        <v>0.3956228956228956</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.36560154250282456</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>0.45746410062280224</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>1.8220286358071782</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>1.5771266591095494</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>2.1049598841831316</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0.4269742130975203</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0.3224057457925579</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0.5654582185006918</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>4.267303691689291</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>2.838360676051677</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>6.415633133149251</v>
+        <v>0.867003367003367</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E71" t="n">
         <v>281.0</v>
@@ -8129,72 +5974,42 @@
         <v>0.0</v>
       </c>
       <c r="R71" t="n">
+        <v>0.8489425981873112</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.5961538461538461</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.8168604651162791</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.6503496503496503</v>
+      </c>
+      <c r="V71" t="n">
         <v>0.8478915662650602</v>
       </c>
-      <c r="S71" t="n">
-        <v>0.8052981538251422</v>
-      </c>
-      <c r="T71" t="n">
-        <v>0.8825263953271736</v>
-      </c>
-      <c r="U71" t="n">
+      <c r="W71" t="n">
         <v>0.5955414012738853</v>
       </c>
-      <c r="V71" t="n">
-        <v>0.5173775744193063</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0.6691414998291061</v>
-      </c>
       <c r="X71" t="n">
-        <v>0.40445859872611467</v>
+        <v>0.8159420289855073</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.330858500170894</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>0.4826224255806937</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>2.096361825253771</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>1.7246132587568783</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>2.5482425581890156</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0.2554120224212358</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0.19211054332105085</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0.33957168653823483</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>8.207764870975286</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>5.300002679326254</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>12.710824551088681</v>
+        <v>0.6493055555555556</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D72" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E72" t="n">
         <v>186.0</v>
@@ -8236,72 +6051,42 @@
         <v>0.0</v>
       </c>
       <c r="R72" t="n">
+        <v>0.8340807174887892</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.9637305699481865</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.6442307692307693</v>
+      </c>
+      <c r="V72" t="n">
         <v>0.8325892857142857</v>
       </c>
-      <c r="S72" t="n">
-        <v>0.7781811754414988</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0.875782333970805</v>
-      </c>
-      <c r="U72" t="n">
+      <c r="W72" t="n">
         <v>0.9</v>
       </c>
-      <c r="V72" t="n">
-        <v>0.8114815714059052</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0.9495393546078501</v>
-      </c>
       <c r="X72" t="n">
-        <v>0.1</v>
+        <v>0.961340206185567</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.050460645392149825</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>0.1885184285940948</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>8.325892857142856</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>4.211774968304186</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>16.458735898830174</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0.18601190476190477</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0.1375765926533708</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0.25149938696569524</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>44.75999999999999</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>19.479535172139798</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>102.84935355466814</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E73" t="n">
         <v>114.0</v>
@@ -8343,72 +6128,42 @@
         <v>0.0</v>
       </c>
       <c r="R73" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.4693333333333333</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.36421725239616615</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="V73" t="n">
         <v>0.9087301587301587</v>
       </c>
-      <c r="S73" t="n">
-        <v>0.8456467417818692</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0.9476283872525242</v>
-      </c>
-      <c r="U73" t="n">
+      <c r="W73" t="n">
         <v>0.46941489361702127</v>
       </c>
-      <c r="V73" t="n">
-        <v>0.4195349131984847</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0.519913508068091</v>
-      </c>
       <c r="X73" t="n">
-        <v>0.5305851063829787</v>
+        <v>0.3646496815286624</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.480086491931909</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>0.5804650868015153</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>1.7126944344989457</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>1.534284020502487</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>1.9118508612264522</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0.19443320293178654</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0.1109135287362451</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0.34084453747939714</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>8.808652064944969</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>4.648332102336399</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>16.692514539195443</v>
+        <v>0.9388297872340425</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E74" t="n">
         <v>133.0</v>
@@ -8450,72 +6205,42 @@
         <v>0.0</v>
       </c>
       <c r="R74" t="n">
+        <v>0.7388888888888889</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.5758389261744966</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.2962138084632517</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.9012605042016807</v>
+      </c>
+      <c r="V74" t="n">
         <v>0.7375690607734806</v>
       </c>
-      <c r="S74" t="n">
-        <v>0.6690153827392065</v>
-      </c>
-      <c r="T74" t="n">
-        <v>0.7962482034101783</v>
-      </c>
-      <c r="U74" t="n">
+      <c r="W74" t="n">
         <v>0.5757372654155496</v>
       </c>
-      <c r="V74" t="n">
-        <v>0.5399724159493212</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0.6107261066126609</v>
-      </c>
       <c r="X74" t="n">
-        <v>0.4242627345844504</v>
+        <v>0.2966666666666667</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.38927389338733903</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>0.46002758405067884</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>1.7384724149668769</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>1.5409939009858293</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>1.9612578191693681</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0.4558171843142805</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>0.3543237640710828</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0.5863826437408163</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>3.8139685707158884</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>2.656754958513006</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>5.475234444109304</v>
+        <v>0.90041928721174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E75" t="n">
         <v>105.0</v>
@@ -8557,72 +6282,42 @@
         <v>0.0</v>
       </c>
       <c r="R75" t="n">
+        <v>0.9905660377358491</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.7342657342657343</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V75" t="n">
         <v>0.985981308411215</v>
       </c>
-      <c r="S75" t="n">
-        <v>0.941521205947253</v>
-      </c>
-      <c r="T75" t="n">
-        <v>0.9967558711186361</v>
-      </c>
-      <c r="U75" t="n">
+      <c r="W75" t="n">
         <v>0.19791666666666666</v>
       </c>
-      <c r="V75" t="n">
-        <v>0.10955752135310617</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0.3310446403201731</v>
-      </c>
       <c r="X75" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.7326388888888888</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.668955359679827</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>0.8904424786468939</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>1.2292753974996966</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>1.0661921478433178</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>1.4173036313901868</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0.07083128381701892</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0.013095684759254461</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0.3831087002626283</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>17.35497835497842</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>2.9825069669391193</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>100.98728252456674</v>
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E76" t="n">
         <v>52.0</v>
@@ -8664,72 +6359,42 @@
         <v>0.0</v>
       </c>
       <c r="R76" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.44086021505376344</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="V76" t="n">
         <v>0.9210526315789473</v>
       </c>
-      <c r="S76" t="n">
-        <v>0.8216813877701985</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0.9672543302483456</v>
-      </c>
-      <c r="U76" t="n">
+      <c r="W76" t="n">
         <v>0.4411764705882353</v>
       </c>
-      <c r="V76" t="n">
-        <v>0.37190476075522794</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0.5128163049086528</v>
-      </c>
       <c r="X76" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.3343949044585987</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.48718369509134707</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>0.6280952392447721</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>1.6481994459833795</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>1.4210246826210133</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>1.9116919269335626</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0.1789473684210527</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0.07266237352972153</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0.440697972131639</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>9.21052631578947</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>3.3712512879697596</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>25.16388953756666</v>
+        <v>0.9482758620689655</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E77" t="n">
         <v>95.0</v>
@@ -8771,72 +6436,42 @@
         <v>1.0</v>
       </c>
       <c r="R77" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="V77" t="n">
         <v>0.7579365079365079</v>
       </c>
-      <c r="S77" t="n">
-        <v>0.6762357011894152</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0.8243748171332602</v>
-      </c>
-      <c r="U77" t="n">
+      <c r="W77" t="n">
         <v>0.7992021276595744</v>
       </c>
-      <c r="V77" t="n">
-        <v>0.7557766615436892</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0.8365757391093744</v>
-      </c>
       <c r="X77" t="n">
-        <v>0.20079787234042554</v>
+        <v>0.5584795321637427</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.1634242608906255</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0.24422333845631083</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>3.7746241984652578</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>3.015604155847463</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>4.724687692186673</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0.30288144098460246</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0.22146094037439507</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0.4142363305141809</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>12.462381934643357</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>7.71603369116075</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>20.128341801156797</v>
+        <v>0.9078549848942599</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E78" t="n">
         <v>95.0</v>
@@ -8878,72 +6513,42 @@
         <v>1.0</v>
       </c>
       <c r="R78" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.8563758389261745</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.47029702970297027</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.8824343015214384</v>
+      </c>
+      <c r="V78" t="n">
         <v>0.5276243093922652</v>
       </c>
-      <c r="S78" t="n">
-        <v>0.4550774111864201</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0.5990230058076945</v>
-      </c>
-      <c r="U78" t="n">
+      <c r="W78" t="n">
         <v>0.8558981233243967</v>
       </c>
-      <c r="V78" t="n">
-        <v>0.8288720534455105</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0.8792776410714145</v>
-      </c>
       <c r="X78" t="n">
-        <v>0.14410187667560323</v>
+        <v>0.47044334975369456</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.12072235892858552</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0.17112794655448943</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>3.6614673005267893</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>2.9305327675244546</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>4.574711786673466</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0.551906445095333</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0.47183127738340774</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0.6455712851995837</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>6.634217326261391</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>4.645985559714645</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>9.473305279659563</v>
+        <v>0.8819060773480663</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E79" t="n">
         <v>93.0</v>
@@ -8985,72 +6590,42 @@
         <v>1.0</v>
       </c>
       <c r="R79" t="n">
+        <v>0.8773584905660378</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="V79" t="n">
         <v>0.8738317757009346</v>
       </c>
-      <c r="S79" t="n">
-        <v>0.7977187642973261</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0.9240328334456654</v>
-      </c>
-      <c r="U79" t="n">
+      <c r="W79" t="n">
         <v>0.6770833333333334</v>
       </c>
-      <c r="V79" t="n">
-        <v>0.5360022731677108</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0.7919205975755395</v>
-      </c>
       <c r="X79" t="n">
-        <v>0.3229166666666667</v>
+        <v>0.8577981651376146</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.20807940242446057</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>0.46399772683228935</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>2.7060596924932168</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>1.7852773256436725</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>4.101748761468362</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0.18634076204169658</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0.1090734884820023</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0.3183438989760527</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>14.522102747909203</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>6.3217961287583</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>33.35942253206676</v>
+        <v>0.7065217391304348</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E80" t="n">
         <v>43.0</v>
@@ -9092,359 +6667,28 @@
         <v>1.0</v>
       </c>
       <c r="R80" t="n">
+        <v>0.7678571428571429</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.7849462365591398</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.5180722891566265</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.9182389937106918</v>
+      </c>
+      <c r="V80" t="n">
         <v>0.7631578947368421</v>
       </c>
-      <c r="S80" t="n">
-        <v>0.6384300282452888</v>
-      </c>
-      <c r="T80" t="n">
-        <v>0.8546547955163013</v>
-      </c>
-      <c r="U80" t="n">
+      <c r="W80" t="n">
         <v>0.7834224598930482</v>
       </c>
-      <c r="V80" t="n">
-        <v>0.7189987897224865</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0.8364360757151788</v>
-      </c>
       <c r="X80" t="n">
-        <v>0.21657754010695188</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.1635639242848212</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>0.28100121027751346</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>3.5237166991552957</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>2.588123263702244</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>4.797522417129506</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0.3023172265133824</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>0.18856074750603752</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0.48470165002828786</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>11.655692729766805</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>5.771835326644601</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>23.537603781519664</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>42.278982704430184</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85.80855163440039</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.619667867109581E-7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>129.88136279392597</v>
-      </c>
-      <c r="G2" t="n">
-        <v>95.38039956547131</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.361435754702061E-25</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.8587800434565862</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80.19497891967238</v>
-      </c>
-      <c r="D3" t="n">
-        <v>83.78950880076731</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0139315891454684E-11</v>
-      </c>
-      <c r="F3" t="n">
-        <v>144.1734064955659</v>
-      </c>
-      <c r="G3" t="n">
-        <v>90.98308050285279</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.0624740702902273E-24</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8454538008122219</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>64.97137244240415</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89.22602411361194</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.523878163150055E-11</v>
-      </c>
-      <c r="F4" t="n">
-        <v>128.38840103337142</v>
-      </c>
-      <c r="G4" t="n">
-        <v>94.54779408135123</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.3644312671390933E-24</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8569711164283107</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14.775685103443543</v>
-      </c>
-      <c r="D5" t="n">
-        <v>93.23212431099425</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.2108679521884136E-4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.093303934214003</v>
-      </c>
-      <c r="G5" t="n">
-        <v>89.00289699723496</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.002565470058103098</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6165949114480136</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>121.82842142343175</v>
-      </c>
-      <c r="D6" t="n">
-        <v>85.22512252092763</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.8944380590146744E-17</v>
-      </c>
-      <c r="F6" t="n">
-        <v>189.70319108295166</v>
-      </c>
-      <c r="G6" t="n">
-        <v>90.51149329790182</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.1353497854189854E-30</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8226502079453114</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.727025669133093</v>
-      </c>
-      <c r="D7" t="n">
-        <v>61.175229273742346</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.052003348679986114</v>
-      </c>
-      <c r="F7" t="n">
-        <v>62.393921870512784</v>
-      </c>
-      <c r="G7" t="n">
-        <v>95.19183934898987</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.8098544093547433E-13</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.7567938688485866</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.064455104505894</v>
-      </c>
-      <c r="D8" t="n">
-        <v>66.90369177835393</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.028446082600962402</v>
-      </c>
-      <c r="F8" t="n">
-        <v>53.289323639014505</v>
-      </c>
-      <c r="G8" t="n">
-        <v>94.37035451918624</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.5906051909370986E-11</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.8322299336511272</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>43.155445956136695</v>
-      </c>
-      <c r="D9" t="n">
-        <v>93.04838605294634</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.2809029328604334E-9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>37.95339740529921</v>
-      </c>
-      <c r="G9" t="n">
-        <v>92.09556928998107</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.8914209288278373E-8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6567092097392232</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>44.50100768567473</v>
-      </c>
-      <c r="D10" t="n">
-        <v>93.25857962320767</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.1811461361665716E-9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>15.522631603324365</v>
-      </c>
-      <c r="G10" t="n">
-        <v>80.67338015444808</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.00142035544608002</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.836469423533438</v>
+        <v>0.915625</v>
       </c>
     </row>
   </sheetData>
